--- a/ElectricityDemand/Data Electricity Demand.xlsx
+++ b/ElectricityDemand/Data Electricity Demand.xlsx
@@ -1783,10 +1783,10 @@
         <v>1.64</v>
       </c>
       <c r="C2" t="n">
-        <v>6.362</v>
+        <v>6362</v>
       </c>
       <c r="D2" t="n">
-        <v>6.856</v>
+        <v>6856</v>
       </c>
       <c r="E2" t="n">
         <v>1034</v>
@@ -1803,10 +1803,10 @@
         <v>1.61</v>
       </c>
       <c r="C3" t="n">
-        <v>7.141</v>
+        <v>7141</v>
       </c>
       <c r="D3" t="n">
-        <v>7.685</v>
+        <v>7685</v>
       </c>
       <c r="E3" t="n">
         <v>1160</v>
@@ -1823,10 +1823,10 @@
         <v>1.58</v>
       </c>
       <c r="C4" t="n">
-        <v>8.382999999999999</v>
+        <v>8383</v>
       </c>
       <c r="D4" t="n">
-        <v>9.015000000000001</v>
+        <v>9015</v>
       </c>
       <c r="E4" t="n">
         <v>1360</v>
@@ -1843,10 +1843,10 @@
         <v>1.54</v>
       </c>
       <c r="C5" t="n">
-        <v>8.552</v>
+        <v>8552</v>
       </c>
       <c r="D5" t="n">
-        <v>9.188000000000001</v>
+        <v>9188</v>
       </c>
       <c r="E5" t="n">
         <v>1387</v>
@@ -1863,10 +1863,10 @@
         <v>1.5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.637</v>
+        <v>9637</v>
       </c>
       <c r="D6" t="n">
-        <v>10.344</v>
+        <v>10344</v>
       </c>
       <c r="E6" t="n">
         <v>1561</v>
@@ -1883,10 +1883,10 @@
         <v>1.49</v>
       </c>
       <c r="C7" t="n">
-        <v>10.252</v>
+        <v>10252</v>
       </c>
       <c r="D7" t="n">
-        <v>10.993</v>
+        <v>10993</v>
       </c>
       <c r="E7" t="n">
         <v>1660</v>
@@ -1903,10 +1903,10 @@
         <v>1.46</v>
       </c>
       <c r="C8" t="n">
-        <v>10.658</v>
+        <v>10658</v>
       </c>
       <c r="D8" t="n">
-        <v>11.418</v>
+        <v>11418</v>
       </c>
       <c r="E8" t="n">
         <v>1723</v>
@@ -1923,10 +1923,10 @@
         <v>1.45</v>
       </c>
       <c r="C9" t="n">
-        <v>12.295</v>
+        <v>12295</v>
       </c>
       <c r="D9" t="n">
-        <v>13.158</v>
+        <v>13158</v>
       </c>
       <c r="E9" t="n">
         <v>1986</v>
@@ -1943,10 +1943,10 @@
         <v>1.44</v>
       </c>
       <c r="C10" t="n">
-        <v>12.805</v>
+        <v>12805</v>
       </c>
       <c r="D10" t="n">
-        <v>13.661</v>
+        <v>13661</v>
       </c>
       <c r="E10" t="n">
         <v>2064</v>
@@ -1963,10 +1963,10 @@
         <v>1.43</v>
       </c>
       <c r="C11" t="n">
-        <v>13.118</v>
+        <v>13118</v>
       </c>
       <c r="D11" t="n">
-        <v>13.965</v>
+        <v>13965</v>
       </c>
       <c r="E11" t="n">
         <v>2110</v>
@@ -7990,34 +7990,34 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.856</v>
+        <v>6856</v>
       </c>
       <c r="D12" t="n">
-        <v>7.685</v>
+        <v>7685</v>
       </c>
       <c r="E12" t="n">
-        <v>9.015000000000001</v>
+        <v>9015</v>
       </c>
       <c r="F12" t="n">
-        <v>9.188000000000001</v>
+        <v>9188</v>
       </c>
       <c r="G12" t="n">
-        <v>10.344</v>
+        <v>10344</v>
       </c>
       <c r="H12" t="n">
-        <v>10.993</v>
+        <v>10993</v>
       </c>
       <c r="I12" t="n">
-        <v>11.418</v>
+        <v>11418</v>
       </c>
       <c r="J12" t="n">
-        <v>13.158</v>
+        <v>13158</v>
       </c>
       <c r="K12" t="n">
-        <v>13.661</v>
+        <v>13661</v>
       </c>
       <c r="L12" t="n">
-        <v>13.965</v>
+        <v>13965</v>
       </c>
     </row>
     <row r="13">
@@ -8997,7 +8997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9006,290 +9006,335 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>2025</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="C1" s="1" t="n">
         <v>2026</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>2027</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>2028</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>2029</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>2030</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>2031</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>2032</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>2033</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>2034</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Jawa-Bali</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>241435</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>252731</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>264177</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>275559</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>286970</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>298702</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>310345</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>321765</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>333986</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>346247</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>12049.856</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Kalimantan</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>12745.685</v>
+        <v>18899</v>
       </c>
       <c r="C3" t="n">
-        <v>13386.015</v>
+        <v>20423</v>
       </c>
       <c r="D3" t="n">
-        <v>14029.188</v>
+        <v>22392</v>
       </c>
       <c r="E3" t="n">
-        <v>14677.344</v>
+        <v>23208</v>
       </c>
       <c r="F3" t="n">
-        <v>15349.993</v>
+        <v>25011</v>
       </c>
       <c r="G3" t="n">
-        <v>16049.418</v>
+        <v>26332</v>
       </c>
       <c r="H3" t="n">
-        <v>16781.158</v>
+        <v>27456</v>
       </c>
       <c r="I3" t="n">
-        <v>17532.661</v>
+        <v>29926</v>
       </c>
       <c r="J3" t="n">
-        <v>18329.965</v>
+        <v>31180</v>
+      </c>
+      <c r="K3" t="n">
+        <v>32281</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Maluku</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>2379.3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>2496.9</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2622.6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>3274.2</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>3409.5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>3581.6</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>3745.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>4187.4</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>4942.8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>5112.3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>NTB</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>3433</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>3663</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>3890</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>4140</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>4377</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>4633</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>4896</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>5150</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>5411</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>5679</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>NTT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1831</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>2003</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>2132</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>2318</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>2504</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>2688</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>2881</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>3084</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>3305</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>3534</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Papua</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>2669</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>2831</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>2994</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>3160</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>3328</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>3500</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>3677</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>3858</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>4046</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>4238</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Sulawesi</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>20541.82</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>22623.78</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>25807.3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>28139.02</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>30336.26</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>34463.54</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>39232.44</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>43682.29</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>46791.59</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>48410.87</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Sumatera</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>57383</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>59549</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>63782</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>66709</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>69944</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>73628</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>81419</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>84764</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>90451</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>94955</v>
       </c>
     </row>
